--- a/IC files/results/longDTA/all_comparisons_set_EM.xlsx
+++ b/IC files/results/longDTA/all_comparisons_set_EM.xlsx
@@ -455,7 +455,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>34.3430427835413</v>
+        <v>34.3430427835414</v>
       </c>
       <c r="D2" t="n">
         <v>0.161920405730167</v>
@@ -467,7 +467,7 @@
         <v>34.0255597766592</v>
       </c>
       <c r="G2" t="n">
-        <v>34.6605257904235</v>
+        <v>34.6605257904236</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -484,7 +484,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.588533560675903</v>
+        <v>0.588533560675902</v>
       </c>
       <c r="E3" t="n">
         <v>3078</v>
@@ -493,7 +493,7 @@
         <v>23.8460416483526</v>
       </c>
       <c r="G3" t="n">
-        <v>26.1539583516474</v>
+        <v>26.1539583516475</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -568,7 +568,7 @@
         <v>3067</v>
       </c>
       <c r="F6" t="n">
-        <v>23.69740853066</v>
+        <v>23.6974085306599</v>
       </c>
       <c r="G6" t="n">
         <v>26.3025914693398</v>
@@ -692,7 +692,7 @@
         <v>38.591799452795</v>
       </c>
       <c r="D11" t="n">
-        <v>0.261652585632221</v>
+        <v>0.26165258563222</v>
       </c>
       <c r="E11" t="n">
         <v>3021</v>
@@ -718,7 +718,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.984600130805536</v>
+        <v>0.984600130805535</v>
       </c>
       <c r="E12" t="n">
         <v>3021</v>
@@ -744,7 +744,7 @@
         <v>30.0326467057129</v>
       </c>
       <c r="D13" t="n">
-        <v>0.280000628197353</v>
+        <v>0.280000628197352</v>
       </c>
       <c r="E13" t="n">
         <v>3021</v>
@@ -767,19 +767,19 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>47.1895516711986</v>
+        <v>47.1895516711987</v>
       </c>
       <c r="D14" t="n">
-        <v>0.906745724452271</v>
+        <v>0.906745724452272</v>
       </c>
       <c r="E14" t="n">
         <v>1419</v>
       </c>
       <c r="F14" t="n">
-        <v>45.4108455470844</v>
+        <v>45.4108455470845</v>
       </c>
       <c r="G14" t="n">
-        <v>48.9682577953127</v>
+        <v>48.9682577953128</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -793,19 +793,19 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>24.9999999999999</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.86680265122064</v>
+        <v>0.866802651220639</v>
       </c>
       <c r="E15" t="n">
         <v>1419</v>
       </c>
       <c r="F15" t="n">
-        <v>23.2996476933421</v>
+        <v>23.2996476933422</v>
       </c>
       <c r="G15" t="n">
-        <v>26.7003523066577</v>
+        <v>26.7003523066578</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -819,19 +819,19 @@
         <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>39.3295530152289</v>
+        <v>39.329553015229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.510730918380979</v>
+        <v>0.510730918380978</v>
       </c>
       <c r="E16" t="n">
         <v>1419</v>
       </c>
       <c r="F16" t="n">
-        <v>38.3276842577584</v>
+        <v>38.3276842577585</v>
       </c>
       <c r="G16" t="n">
-        <v>40.3314217726994</v>
+        <v>40.3314217726995</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -932,7 +932,7 @@
         <v>1873</v>
       </c>
       <c r="F20" t="n">
-        <v>55.2647887982353</v>
+        <v>55.2647887982354</v>
       </c>
       <c r="G20" t="n">
         <v>57.8687114732412</v>
@@ -978,7 +978,7 @@
         <v>55.4744464828671</v>
       </c>
       <c r="D22" t="n">
-        <v>0.813282491917909</v>
+        <v>0.81328249191791</v>
       </c>
       <c r="E22" t="n">
         <v>1873</v>
@@ -1001,19 +1001,19 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>44.6332076235964</v>
+        <v>44.6332076235963</v>
       </c>
       <c r="D23" t="n">
-        <v>0.318793740234299</v>
+        <v>0.318793740234298</v>
       </c>
       <c r="E23" t="n">
         <v>3203</v>
       </c>
       <c r="F23" t="n">
-        <v>44.0081471749833</v>
+        <v>44.0081471749832</v>
       </c>
       <c r="G23" t="n">
-        <v>45.2582680722095</v>
+        <v>45.2582680722094</v>
       </c>
       <c r="H23" t="s">
         <v>18</v>
@@ -1039,7 +1039,7 @@
         <v>22.5442662412398</v>
       </c>
       <c r="G24" t="n">
-        <v>27.4557337587603</v>
+        <v>27.4557337587602</v>
       </c>
       <c r="H24" t="s">
         <v>18</v>
@@ -1088,7 +1088,7 @@
         <v>2214</v>
       </c>
       <c r="F26" t="n">
-        <v>56.0206673253645</v>
+        <v>56.0206673253644</v>
       </c>
       <c r="G26" t="n">
         <v>58.133256246554</v>
@@ -1134,7 +1134,7 @@
         <v>40.3255223567809</v>
       </c>
       <c r="D28" t="n">
-        <v>0.604252917783763</v>
+        <v>0.604252917783764</v>
       </c>
       <c r="E28" t="n">
         <v>2214</v>
@@ -1264,7 +1264,7 @@
         <v>24.9999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.747475973912314</v>
+        <v>0.747475973912315</v>
       </c>
       <c r="E33" t="n">
         <v>1947</v>
@@ -1313,7 +1313,7 @@
         <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>64.2651289997439</v>
+        <v>64.265128999744</v>
       </c>
       <c r="D35" t="n">
         <v>0.238970007363947</v>
@@ -1365,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="C37" t="n">
-        <v>61.572146431491</v>
+        <v>61.5721464314911</v>
       </c>
       <c r="D37" t="n">
         <v>0.247743639477614</v>
@@ -1524,7 +1524,7 @@
         <v>38.7577524488552</v>
       </c>
       <c r="D43" t="n">
-        <v>0.317472160367593</v>
+        <v>0.317472160367594</v>
       </c>
       <c r="E43" t="n">
         <v>3238</v>
